--- a/tables/comfort_classes.xlsx
+++ b/tables/comfort_classes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dane\Doktorat\phd_kalitowski\phd_kali\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dr\latex_text\phd_kali\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF317AE1-1908-4BA1-9FF4-BB5F7330C6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32310" yWindow="5010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -380,23 +381,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -407,7 +408,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -418,7 +419,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -429,7 +430,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -440,56 +441,56 @@
       <c r="D4" s="4"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
